--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1288159.566616434</v>
+        <v>-1248664.247901604</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10318275.86882115</v>
+        <v>10326474.06652147</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112.4822042404765</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>372.9574390090166</v>
+        <v>244.7982916533579</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>12.51168005389425</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>51.25395846644548</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,10 +874,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>227.3083365901441</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>61.1927073583233</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>50.80429366487828</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>52.65343146005593</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>5.802477362267968</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>154.1285617603239</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.1725923451615</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>33.80528836033497</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9101481176426</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>71.49788411901457</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,10 +1822,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>199.7359954412871</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,16 +2056,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>172.6623007436949</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>248.9284599389402</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2242,22 +2242,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>109.1426757626846</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432389</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3244,7 +3244,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095259</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W34" t="n">
         <v>253.070430030824</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432362</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>227.1849416185816</v>
       </c>
       <c r="U43" t="n">
         <v>259.4129604006783</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.1395056465464</v>
+        <v>1169.533154910342</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>922.2621532402836</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
         <v>461.8110981924006</v>
@@ -4328,52 +4328,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1600.893495603755</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1600.893495603755</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1600.893495603755</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1600.078445055193</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>1600.078445055193</v>
       </c>
       <c r="Y2" t="n">
-        <v>1013.75789376824</v>
+        <v>1595.83272539525</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
         <v>804.6185656731816</v>
@@ -4425,7 +4425,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>992.2117929153466</v>
+        <v>511.9988294021812</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,16 +4492,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>784.0252338158897</v>
       </c>
       <c r="W4" t="n">
-        <v>992.2117929153466</v>
+        <v>511.9988294021812</v>
       </c>
       <c r="X4" t="n">
-        <v>992.2117929153466</v>
+        <v>511.9988294021812</v>
       </c>
       <c r="Y4" t="n">
-        <v>992.2117929153466</v>
+        <v>511.9988294021812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.4179192429278</v>
+        <v>1382.279903301272</v>
       </c>
       <c r="C5" t="n">
-        <v>149.3158504667552</v>
+        <v>944.1374304846954</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.268049699544</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.4933048578391</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1112.37576914967</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640693</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599288</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352345</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536182</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.57466240922</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2227.57466240922</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1864.957712343047</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>1864.142661794484</v>
       </c>
       <c r="X5" t="n">
-        <v>1018.003613428182</v>
+        <v>1812.825193446122</v>
       </c>
       <c r="Y5" t="n">
-        <v>609.7174897278356</v>
+        <v>1404.539069745776</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083442</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750449</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481.2823514138177</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2823514138177</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>481.2823514138177</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>481.2823514138177</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.7792737761694</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317367</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.9640150028723</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>830.1738967708334</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1595.924845291889</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2015.594094517671</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488012</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352345</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057717</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2350.634573355713</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2350.634573355713</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2072.201572608818</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2066.340484364103</v>
       </c>
       <c r="W7" t="n">
-        <v>726.6741060804052</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>481.2823514138177</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>481.2823514138177</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>366.7696217991695</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>351.6675624188842</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>2346.178895899513</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2216.522375073859</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1778.379902257282</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.470117431727</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>908.6953725900217</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>480.8279429992295</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43011162249338</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249338</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963339</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>514.2680097025512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>514.2680097025512</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>514.2680097025512</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M11" t="n">
-        <v>514.2680097025512</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N11" t="n">
-        <v>1428.913524097408</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O11" t="n">
-        <v>2406.703386936621</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>3235.013261770017</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q11" t="n">
-        <v>3781.512047728612</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481669</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665506</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3867.014238665506</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3867.014238665506</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3504.397288599333</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3470.250532679802</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3051.108069259113</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.821945558766</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409262</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775685</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241217</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510755</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672371</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334209</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963339</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.076995410091</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763033</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634103</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569395</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025886</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414686</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206893</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>815.751767595477</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>815.751767595477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>649.8737747969997</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>649.8737747969997</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>473.1667207587558</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>167.6732714749581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963339</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143233</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854589</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534199</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1990.701294987362</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1752.408216080652</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1480.381811666943</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1234.990057000356</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1007.570386314464</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,49 +5279,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>875.5388337745582</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C16" t="n">
-        <v>702.9771222577831</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1812.195282259733</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1540.168877846025</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X16" t="n">
-        <v>1294.777123179437</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y16" t="n">
-        <v>1067.357452493545</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5525,34 +5525,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5686,37 +5686,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.521082083228</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886287</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030275</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666409</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412733</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799771</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832277</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7199,25 +7199,25 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080665</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716798</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
         <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,19 +7348,19 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
@@ -7394,19 +7394,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7421,40 +7421,40 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7555,43 +7555,43 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7658,40 +7658,40 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380862</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>77.54539097102793</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>309.3606882223664</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>923.8843579746027</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204173</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>807.5312715220471</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,19 +10592,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309.5543705395822</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>205.3548748017975</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>56.77761645812976</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.001611682742</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>48.17580493063119</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.104494779778828e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>96.56253959275554</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>84.34995760698669</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9863699957308</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>35.15749310933367</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58.91774794908547</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.209965709378594e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>827492.711915114</v>
+        <v>681619.9181328434</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>895767.9812033185</v>
+        <v>904322.0775585136</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>895767.9812033185</v>
+        <v>905745.1828494524</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754867.2207062638</v>
+        <v>909899.0669420377</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909899.0669420378</v>
+        <v>909899.0669420377</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>909899.0669420378</v>
+        <v>909899.0669420377</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>909899.0669420377</v>
+        <v>909899.0669420374</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>909899.0669420374</v>
+        <v>909899.0669420377</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>909899.0669420377</v>
+        <v>909899.0669420374</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>924994.8875407539</v>
+        <v>923145.4925533814</v>
       </c>
     </row>
     <row r="14">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61766.47119490072</v>
+        <v>50545.48705780299</v>
       </c>
       <c r="C2" t="n">
         <v>67018.41498630105</v>
       </c>
       <c r="D2" t="n">
-        <v>67018.41498630105</v>
+        <v>67018.41498630104</v>
       </c>
       <c r="E2" t="n">
-        <v>54636.21388007129</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="F2" t="n">
         <v>65857.19801716904</v>
       </c>
       <c r="G2" t="n">
+        <v>65857.19801716902</v>
+      </c>
+      <c r="H2" t="n">
         <v>65857.19801716904</v>
       </c>
-      <c r="H2" t="n">
-        <v>65857.19801716901</v>
-      </c>
       <c r="I2" t="n">
-        <v>65857.19801716901</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="J2" t="n">
-        <v>65857.19801716901</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="K2" t="n">
-        <v>65857.19801716901</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="L2" t="n">
         <v>67018.41498630107</v>
       </c>
       <c r="M2" t="n">
+        <v>67018.41498630105</v>
+      </c>
+      <c r="N2" t="n">
         <v>67018.41498630107</v>
-      </c>
-      <c r="N2" t="n">
-        <v>67018.41498630108</v>
       </c>
       <c r="O2" t="n">
         <v>67018.41498630107</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246255</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106389</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880865003</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.7293565868</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338235</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143496</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962804</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713847</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169715.5868602361</v>
+        <v>118479.0404528103</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154526.7187594515</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>45265.38686931731</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26445,16 +26445,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>59904.18292625602</v>
+        <v>59904.18292625603</v>
       </c>
       <c r="M4" t="n">
-        <v>59904.18292625603</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="O4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="P4" t="n">
         <v>68372.72551926989</v>
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295563</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972137</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-309565.2044622677</v>
+        <v>-269879.1007505095</v>
       </c>
       <c r="C6" t="n">
-        <v>-186103.0528020857</v>
+        <v>-226980.7183685686</v>
       </c>
       <c r="D6" t="n">
-        <v>-186103.0528020857</v>
+        <v>-165980.6070223097</v>
       </c>
       <c r="E6" t="n">
-        <v>-218889.3859854676</v>
+        <v>-248801.1992586786</v>
       </c>
       <c r="F6" t="n">
-        <v>-149685.595054833</v>
+        <v>-66446.09003762886</v>
       </c>
       <c r="G6" t="n">
-        <v>-66422.86569824624</v>
+        <v>-66446.09003762888</v>
       </c>
       <c r="H6" t="n">
-        <v>-66422.86569824627</v>
+        <v>-66446.09003762886</v>
       </c>
       <c r="I6" t="n">
-        <v>-66422.86569824627</v>
+        <v>-66446.09003762889</v>
       </c>
       <c r="J6" t="n">
-        <v>-177437.3310432364</v>
+        <v>-177460.5553826191</v>
       </c>
       <c r="K6" t="n">
-        <v>-66422.86569824627</v>
+        <v>-120114.4171010112</v>
       </c>
       <c r="L6" t="n">
-        <v>-84957.49474921353</v>
+        <v>-93737.6684396506</v>
       </c>
       <c r="M6" t="n">
-        <v>-212363.151074496</v>
+        <v>-214447.6259969105</v>
       </c>
       <c r="N6" t="n">
-        <v>-133672.725916197</v>
+        <v>-76869.92525905855</v>
       </c>
       <c r="O6" t="n">
-        <v>-76869.92525905851</v>
+        <v>-76869.92525905855</v>
       </c>
       <c r="P6" t="n">
-        <v>-76869.92525905849</v>
+        <v>-76869.92525905852</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380862</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204173</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179819</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977077</v>
       </c>
       <c r="E4" t="n">
-        <v>563.370670600313</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643279</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179819</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977077</v>
       </c>
       <c r="M4" t="n">
-        <v>563.370670600313</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273056</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179819</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977077</v>
       </c>
       <c r="M4" t="n">
-        <v>563.370670600313</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643279</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>60.80360907939433</v>
+        <v>188.9627564350531</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27537,16 +27537,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>119.5821359351618</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>370.3579796189766</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>364.1467451216041</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>122.2865520378054</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.2834756860059</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>267.9080130197348</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>230.0306701181816</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380862</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>77.54539097102793</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>309.3606882223664</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>923.8843579746027</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204173</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,19 +35647,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>807.5312715220471</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -37312,19 +37312,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348443</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
